--- a/experiments/analysis/nyc.xlsx
+++ b/experiments/analysis/nyc.xlsx
@@ -5,11 +5,11 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Ethan/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Ethan/Worksplace/IntelliJWorkspace/harp-sahad/experiments/analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14240" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14440" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,24 +24,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="20">
   <si>
     <t>u3-1</t>
   </si>
   <si>
     <t>u5-1</t>
-  </si>
-  <si>
-    <t>outOfMemoryError</t>
-  </si>
-  <si>
-    <t>Fail</t>
-  </si>
-  <si>
-    <t>Unit: ms</t>
-  </si>
-  <si>
-    <t>Unit: hour</t>
   </si>
   <si>
     <t>numOfNodes</t>
@@ -56,14 +44,53 @@
     <t>dataset</t>
   </si>
   <si>
-    <t>data from nyc-u-e.norandom.40threads.20170306.log</t>
+    <t>u7-1</t>
+  </si>
+  <si>
+    <t>repeat-1</t>
+  </si>
+  <si>
+    <t>repeat-2</t>
+  </si>
+  <si>
+    <t>repeat-3</t>
+  </si>
+  <si>
+    <t>u3-1-avg</t>
+  </si>
+  <si>
+    <t>u5-1-avg</t>
+  </si>
+  <si>
+    <t>u7-1-avg</t>
+  </si>
+  <si>
+    <t>Running time (ms)</t>
+  </si>
+  <si>
+    <t>Note: outOfMemoryError if with only 1 node</t>
+  </si>
+  <si>
+    <t>Running time (hr)</t>
+  </si>
+  <si>
+    <t>templates</t>
+  </si>
+  <si>
+    <t>fail</t>
+  </si>
+  <si>
+    <t>Need to investigate why 2nodes fail with u5-1 and u7-1</t>
+  </si>
+  <si>
+    <t>experiment results from nyc-u-e.norandom.40threads.20170306.log and nyc-u-e.norandom.40threads.20170308.log</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -71,16 +98,36 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -88,15 +135,47 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="20% - Accent3" xfId="1" builtinId="38"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -124,6 +203,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Harp-sahad performance</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> on different templates with various number of machine nodes </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -166,11 +275,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$I$6</c:f>
+              <c:f>Sheet1!$H$18</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>u3-1</c:v>
+                  <c:v>u3-1-avg</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -187,23 +296,20 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$H$7:$H$11</c:f>
+              <c:f>Sheet1!$D$19:$D$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.0</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>16.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -211,24 +317,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$I$7:$I$11</c:f>
+              <c:f>Sheet1!$H$19:$H$22</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>2.921112222222222</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.021033333333333</c:v>
+                  <c:v>1.323881944444444</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.327843333333333</c:v>
+                  <c:v>0.66947</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.666853333333333</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.411123888888889</c:v>
+                  <c:v>0.425416388888889</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -239,11 +342,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$J$6</c:f>
+              <c:f>Sheet1!$L$18</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>u5-1</c:v>
+                  <c:v>u5-1-avg</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -260,23 +363,20 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$H$7:$H$11</c:f>
+              <c:f>Sheet1!$D$19:$D$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.0</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.0</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>16.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -284,24 +384,88 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$J$7:$J$11</c:f>
+              <c:f>Sheet1!$L$19:$L$22</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.929355555555556</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.012693472222222</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.634970138888889</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$P$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>u7-1-avg</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$D$19:$D$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$P$19:$P$22</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0</c:v>
+                  <c:v>2.643145833333333</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.847428888888889</c:v>
+                  <c:v>1.382870972222222</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.030580277777778</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.621791388888889</c:v>
+                  <c:v>0.881812638888889</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -316,16 +480,77 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="219"/>
-        <c:axId val="-2076997136"/>
-        <c:axId val="-2076407376"/>
+        <c:axId val="-2035043168"/>
+        <c:axId val="-2034792288"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2076997136"/>
+        <c:axId val="-2035043168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> of Machine Nodes (40 threads per node)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -363,7 +588,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2076407376"/>
+        <c:crossAx val="-2034792288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -371,7 +596,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2076407376"/>
+        <c:axId val="-2034792288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -391,7 +616,68 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Running</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> time (hr.)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -422,7 +708,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2076997136"/>
+        <c:crossAx val="-2035043168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -544,7 +830,7 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -1051,19 +1337,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>44450</xdr:rowOff>
+      <xdr:colOff>292100</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>444500</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>146050</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="2" name="Chart 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1344,10 +1630,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:Q23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="N30" sqref="N30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1356,163 +1642,541 @@
     <col min="3" max="3" width="11.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.6640625" customWidth="1"/>
     <col min="5" max="5" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="11.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="D1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="D4" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="D5" s="2"/>
+      <c r="E5" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="D6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B1" t="s">
+      <c r="H6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q6" s="1"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="D7" s="2">
+        <v>2</v>
+      </c>
+      <c r="E7" s="2">
+        <v>10875720</v>
+      </c>
+      <c r="F7" s="2">
+        <v>10156288</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2">
+        <f>AVERAGE(E7:G7)</f>
+        <v>10516004</v>
+      </c>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2" t="e">
+        <f>AVERAGE(I7:K7)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2" t="e">
+        <f>AVERAGE(M7:O7)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="D8" s="2">
+        <v>4</v>
+      </c>
+      <c r="E8" s="2">
+        <v>4780236</v>
+      </c>
+      <c r="F8" s="2">
+        <v>4751714</v>
+      </c>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2">
+        <f t="shared" ref="H8:H10" si="0">AVERAGE(E8:G8)</f>
+        <v>4765975</v>
+      </c>
+      <c r="I8" s="2">
+        <v>6650744</v>
+      </c>
+      <c r="J8" s="2">
+        <v>7240616</v>
+      </c>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2">
+        <f t="shared" ref="L8:L10" si="1">AVERAGE(I8:K8)</f>
+        <v>6945680</v>
+      </c>
+      <c r="M8" s="2">
+        <v>9316105</v>
+      </c>
+      <c r="N8" s="2">
+        <v>9714545</v>
+      </c>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2">
+        <f t="shared" ref="P8:P10" si="2">AVERAGE(M8:O8)</f>
+        <v>9515325</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="D9" s="2">
+        <v>8</v>
+      </c>
+      <c r="E9" s="2">
+        <v>2400672</v>
+      </c>
+      <c r="F9" s="2">
+        <v>2419512</v>
+      </c>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2">
+        <f t="shared" si="0"/>
+        <v>2410092</v>
+      </c>
+      <c r="I9" s="2">
+        <v>3710089</v>
+      </c>
+      <c r="J9" s="2">
+        <v>3581304</v>
+      </c>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2">
+        <f t="shared" si="1"/>
+        <v>3645696.5</v>
+      </c>
+      <c r="M9" s="2">
+        <v>5040738</v>
+      </c>
+      <c r="N9" s="2">
+        <v>4915933</v>
+      </c>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2">
+        <f t="shared" si="2"/>
+        <v>4978335.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="D10" s="2">
+        <v>16</v>
+      </c>
+      <c r="E10" s="2">
+        <v>1480046</v>
+      </c>
+      <c r="F10" s="2">
+        <v>1582952</v>
+      </c>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2">
+        <f t="shared" si="0"/>
+        <v>1531499</v>
+      </c>
+      <c r="I10" s="2">
+        <v>2238449</v>
+      </c>
+      <c r="J10" s="2">
+        <v>2333336</v>
+      </c>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2">
+        <f t="shared" si="1"/>
+        <v>2285892.5</v>
+      </c>
+      <c r="M10" s="2">
+        <v>3204067</v>
+      </c>
+      <c r="N10" s="2">
+        <v>3144984</v>
+      </c>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2">
+        <f t="shared" si="2"/>
+        <v>3174525.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="D11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="7">
+        <v>17876290</v>
+      </c>
+      <c r="C14" s="7">
+        <v>480093705</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="D16" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="12"/>
+      <c r="P16" s="12"/>
+    </row>
+    <row r="17" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="D17" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C1" t="s">
+      <c r="N17" s="12"/>
+      <c r="O17" s="12"/>
+      <c r="P17" s="12"/>
+    </row>
+    <row r="18" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="D18" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E18" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F18" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H18" s="5" t="s">
         <v>10</v>
       </c>
+      <c r="I18" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K18" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L18" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="M18" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="N18" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="O18" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="P18" s="5" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="19" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="D19" s="4">
+        <v>2</v>
+      </c>
+      <c r="E19" s="6">
+        <f>E7/1000/60/60</f>
+        <v>3.0210333333333335</v>
+      </c>
+      <c r="F19" s="6">
+        <f t="shared" ref="F19:P19" si="3">F7/1000/60/60</f>
+        <v>2.8211911111111112</v>
+      </c>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6">
+        <f t="shared" si="3"/>
+        <v>2.9211122222222223</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J19" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M19" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="N19" s="6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O19" s="6"/>
+      <c r="P19" s="6" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="20" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="D20" s="4">
+        <v>4</v>
+      </c>
+      <c r="E20" s="6">
+        <f t="shared" ref="E20:P20" si="4">E8/1000/60/60</f>
+        <v>1.3278433333333333</v>
+      </c>
+      <c r="F20" s="6">
+        <f t="shared" si="4"/>
+        <v>1.3199205555555555</v>
+      </c>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6">
+        <f t="shared" si="4"/>
+        <v>1.3238819444444445</v>
+      </c>
+      <c r="I20" s="6">
+        <f t="shared" si="4"/>
+        <v>1.8474288888888888</v>
+      </c>
+      <c r="J20" s="6">
+        <f t="shared" si="4"/>
+        <v>2.0112822222222224</v>
+      </c>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6">
+        <f t="shared" si="4"/>
+        <v>1.9293555555555557</v>
+      </c>
+      <c r="M20" s="6">
+        <f t="shared" si="4"/>
+        <v>2.5878069444444445</v>
+      </c>
+      <c r="N20" s="6">
+        <f t="shared" si="4"/>
+        <v>2.6984847222222226</v>
+      </c>
+      <c r="O20" s="6"/>
+      <c r="P20" s="6">
+        <f t="shared" si="4"/>
+        <v>2.6431458333333335</v>
+      </c>
+    </row>
+    <row r="21" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="D21" s="4">
         <v>8</v>
       </c>
-      <c r="B2" s="1">
-        <v>17876290</v>
-      </c>
-      <c r="C2" s="1">
-        <v>480093705</v>
+      <c r="E21" s="6">
+        <f t="shared" ref="E21:P21" si="5">E9/1000/60/60</f>
+        <v>0.66685333333333341</v>
+      </c>
+      <c r="F21" s="6">
+        <f t="shared" si="5"/>
+        <v>0.67208666666666672</v>
+      </c>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6">
+        <f t="shared" si="5"/>
+        <v>0.66947000000000001</v>
+      </c>
+      <c r="I21" s="6">
+        <f t="shared" si="5"/>
+        <v>1.0305802777777777</v>
+      </c>
+      <c r="J21" s="6">
+        <f t="shared" si="5"/>
+        <v>0.99480666666666673</v>
+      </c>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6">
+        <f t="shared" si="5"/>
+        <v>1.0126934722222223</v>
+      </c>
+      <c r="M21" s="6">
+        <f t="shared" si="5"/>
+        <v>1.4002050000000001</v>
+      </c>
+      <c r="N21" s="6">
+        <f t="shared" si="5"/>
+        <v>1.3655369444444443</v>
+      </c>
+      <c r="O21" s="6"/>
+      <c r="P21" s="6">
+        <f t="shared" si="5"/>
+        <v>1.3828709722222221</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="E4" t="s">
-        <v>4</v>
-      </c>
-      <c r="I4" t="s">
-        <v>5</v>
+    <row r="22" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="D22" s="4">
+        <v>16</v>
+      </c>
+      <c r="E22" s="6">
+        <f t="shared" ref="E22:P22" si="6">E10/1000/60/60</f>
+        <v>0.4111238888888889</v>
+      </c>
+      <c r="F22" s="6">
+        <f t="shared" si="6"/>
+        <v>0.43970888888888893</v>
+      </c>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6">
+        <f t="shared" si="6"/>
+        <v>0.42541638888888894</v>
+      </c>
+      <c r="I22" s="6">
+        <f t="shared" si="6"/>
+        <v>0.62179138888888896</v>
+      </c>
+      <c r="J22" s="6">
+        <f t="shared" si="6"/>
+        <v>0.64814888888888877</v>
+      </c>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6">
+        <f t="shared" si="6"/>
+        <v>0.63497013888888887</v>
+      </c>
+      <c r="M22" s="6">
+        <f t="shared" si="6"/>
+        <v>0.89001861111111114</v>
+      </c>
+      <c r="N22" s="6">
+        <f t="shared" si="6"/>
+        <v>0.87360666666666664</v>
+      </c>
+      <c r="O22" s="6"/>
+      <c r="P22" s="6">
+        <f t="shared" si="6"/>
+        <v>0.88181263888888894</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="E6" t="s">
-        <v>0</v>
-      </c>
-      <c r="F6" t="s">
-        <v>1</v>
-      </c>
-      <c r="I6" t="s">
-        <v>0</v>
-      </c>
-      <c r="J6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F7" t="s">
-        <v>2</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="I7" t="s">
-        <v>2</v>
-      </c>
-      <c r="J7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="D8">
-        <v>2</v>
-      </c>
-      <c r="E8">
-        <v>10875720</v>
-      </c>
-      <c r="F8" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8">
-        <v>2</v>
-      </c>
-      <c r="I8">
-        <f>E8/1000/60/60</f>
-        <v>3.0210333333333335</v>
-      </c>
-      <c r="J8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="D9">
-        <v>4</v>
-      </c>
-      <c r="E9">
-        <v>4780236</v>
-      </c>
-      <c r="F9">
-        <v>6650744</v>
-      </c>
-      <c r="H9">
-        <v>4</v>
-      </c>
-      <c r="I9">
-        <f>E9/1000/60/60</f>
-        <v>1.3278433333333333</v>
-      </c>
-      <c r="J9">
-        <f>F9/1000/60/60</f>
-        <v>1.8474288888888888</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="D10">
-        <v>8</v>
-      </c>
-      <c r="E10">
-        <v>2400672</v>
-      </c>
-      <c r="F10">
-        <v>3710089</v>
-      </c>
-      <c r="H10">
-        <v>8</v>
-      </c>
-      <c r="I10">
-        <f t="shared" ref="I10:J11" si="0">E10/1000/60/60</f>
-        <v>0.66685333333333341</v>
-      </c>
-      <c r="J10">
-        <f t="shared" si="0"/>
-        <v>1.0305802777777777</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="D11">
-        <v>16</v>
-      </c>
-      <c r="E11">
-        <v>1480046</v>
-      </c>
-      <c r="F11">
-        <v>2238449</v>
-      </c>
-      <c r="H11">
-        <v>16</v>
-      </c>
-      <c r="I11">
-        <f t="shared" si="0"/>
-        <v>0.4111238888888889</v>
-      </c>
-      <c r="J11">
-        <f t="shared" si="0"/>
-        <v>0.62179138888888896</v>
-      </c>
+    <row r="23" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="D23" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
     </row>
   </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="D4:P4"/>
+    <mergeCell ref="D16:P16"/>
+    <mergeCell ref="E17:H17"/>
+    <mergeCell ref="I17:L17"/>
+    <mergeCell ref="M17:P17"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="I5:L5"/>
+    <mergeCell ref="M5:P5"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
